--- a/natmiOut/OldD4/LR-pairs_lrc2p/Anxa1-Egfr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Anxa1-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.3365488340753</v>
+        <v>17.404364</v>
       </c>
       <c r="H2">
-        <v>10.3365488340753</v>
+        <v>52.213092</v>
       </c>
       <c r="I2">
-        <v>0.02394384126647741</v>
+        <v>0.03673162149179448</v>
       </c>
       <c r="J2">
-        <v>0.02394384126647741</v>
+        <v>0.03917989134808626</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.897941217831048</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N2">
-        <v>0.897941217831048</v>
+        <v>3.633172</v>
       </c>
       <c r="O2">
-        <v>0.01181103953983894</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P2">
-        <v>0.01181103953983894</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q2">
-        <v>9.281613248239674</v>
+        <v>21.07768265420267</v>
       </c>
       <c r="R2">
-        <v>9.281613248239674</v>
+        <v>189.699143887824</v>
       </c>
       <c r="S2">
-        <v>0.0002828016559339919</v>
+        <v>0.0005416498406427701</v>
       </c>
       <c r="T2">
-        <v>0.0002828016559339919</v>
+        <v>0.0006262179058032105</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.3365488340753</v>
+        <v>17.404364</v>
       </c>
       <c r="H3">
-        <v>10.3365488340753</v>
+        <v>52.213092</v>
       </c>
       <c r="I3">
-        <v>0.02394384126647741</v>
+        <v>0.03673162149179448</v>
       </c>
       <c r="J3">
-        <v>0.02394384126647741</v>
+        <v>0.03917989134808626</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>56.7871225945224</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N3">
-        <v>56.7871225945224</v>
+        <v>183.180478</v>
       </c>
       <c r="O3">
-        <v>0.7469475027972082</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P3">
-        <v>0.7469475027972082</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q3">
-        <v>586.9828658449017</v>
+        <v>1062.713238935331</v>
       </c>
       <c r="R3">
-        <v>586.9828658449017</v>
+        <v>9564.419150417976</v>
       </c>
       <c r="S3">
-        <v>0.01788479244136804</v>
+        <v>0.02730938054063128</v>
       </c>
       <c r="T3">
-        <v>0.01788479244136804</v>
+        <v>0.03157320801690398</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.3365488340753</v>
+        <v>17.404364</v>
       </c>
       <c r="H4">
-        <v>10.3365488340753</v>
+        <v>52.213092</v>
       </c>
       <c r="I4">
-        <v>0.02394384126647741</v>
+        <v>0.03673162149179448</v>
       </c>
       <c r="J4">
-        <v>0.02394384126647741</v>
+        <v>0.03917989134808626</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.421752113583795</v>
+        <v>0.132278</v>
       </c>
       <c r="N4">
-        <v>0.421752113583795</v>
+        <v>0.396834</v>
       </c>
       <c r="O4">
-        <v>0.005547502209087931</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P4">
-        <v>0.005547502209087931</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q4">
-        <v>4.35946131793337</v>
+        <v>2.302214461192</v>
       </c>
       <c r="R4">
-        <v>4.35946131793337</v>
+        <v>20.719930150728</v>
       </c>
       <c r="S4">
-        <v>0.0001328285123198342</v>
+        <v>5.916182136756339E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001328285123198342</v>
+        <v>6.839878663369398E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.3365488340753</v>
+        <v>17.404364</v>
       </c>
       <c r="H5">
-        <v>10.3365488340753</v>
+        <v>52.213092</v>
       </c>
       <c r="I5">
-        <v>0.02394384126647741</v>
+        <v>0.03673162149179448</v>
       </c>
       <c r="J5">
-        <v>0.02394384126647741</v>
+        <v>0.03917989134808626</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.918771390257</v>
+        <v>0.655122</v>
       </c>
       <c r="N5">
-        <v>17.918771390257</v>
+        <v>1.965366</v>
       </c>
       <c r="O5">
-        <v>0.2356939554538648</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P5">
-        <v>0.2356939554538648</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q5">
-        <v>185.2182555220228</v>
+        <v>11.401981752408</v>
       </c>
       <c r="R5">
-        <v>185.2182555220228</v>
+        <v>102.617835771672</v>
       </c>
       <c r="S5">
-        <v>0.005643418656855537</v>
+        <v>0.0002930057208149568</v>
       </c>
       <c r="T5">
-        <v>0.005643418656855537</v>
+        <v>0.0003387528530597595</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>163.630264649244</v>
+        <v>17.404364</v>
       </c>
       <c r="H6">
-        <v>163.630264649244</v>
+        <v>52.213092</v>
       </c>
       <c r="I6">
-        <v>0.3790372537337974</v>
+        <v>0.03673162149179448</v>
       </c>
       <c r="J6">
-        <v>0.3790372537337974</v>
+        <v>0.03917989134808626</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.897941217831048</v>
+        <v>19.068426</v>
       </c>
       <c r="N6">
-        <v>0.897941217831048</v>
+        <v>38.136852</v>
       </c>
       <c r="O6">
-        <v>0.01181103953983894</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P6">
-        <v>0.01181103953983894</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q6">
-        <v>146.9303591131588</v>
+        <v>331.873827011064</v>
       </c>
       <c r="R6">
-        <v>146.9303591131588</v>
+        <v>1991.242962066384</v>
       </c>
       <c r="S6">
-        <v>0.004476823990921846</v>
+        <v>0.008528423568337903</v>
       </c>
       <c r="T6">
-        <v>0.004476823990921846</v>
+        <v>0.006573313785685615</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>163.630264649244</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H7">
-        <v>163.630264649244</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I7">
-        <v>0.3790372537337974</v>
+        <v>0.376379213879422</v>
       </c>
       <c r="J7">
-        <v>0.3790372537337974</v>
+        <v>0.4014659877938717</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>56.7871225945224</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N7">
-        <v>56.7871225945224</v>
+        <v>3.633172</v>
       </c>
       <c r="O7">
-        <v>0.7469475027972082</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P7">
-        <v>0.7469475027972082</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q7">
-        <v>9292.091898810764</v>
+        <v>215.9774413868698</v>
       </c>
       <c r="R7">
-        <v>9292.091898810764</v>
+        <v>1943.796972481828</v>
       </c>
       <c r="S7">
-        <v>0.2831209301435718</v>
+        <v>0.005550142709179932</v>
       </c>
       <c r="T7">
-        <v>0.2831209301435718</v>
+        <v>0.00641668931375879</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>163.630264649244</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H8">
-        <v>163.630264649244</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I8">
-        <v>0.3790372537337974</v>
+        <v>0.376379213879422</v>
       </c>
       <c r="J8">
-        <v>0.3790372537337974</v>
+        <v>0.4014659877938717</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.421752113583795</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N8">
-        <v>0.421752113583795</v>
+        <v>183.180478</v>
       </c>
       <c r="O8">
-        <v>0.005547502209087931</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P8">
-        <v>0.005547502209087931</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q8">
-        <v>69.01140996209439</v>
+        <v>10889.341586488</v>
       </c>
       <c r="R8">
-        <v>69.01140996209439</v>
+        <v>98004.07427839203</v>
       </c>
       <c r="S8">
-        <v>0.002102710002414864</v>
+        <v>0.2798320020180148</v>
       </c>
       <c r="T8">
-        <v>0.002102710002414864</v>
+        <v>0.3235223148454923</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>163.630264649244</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H9">
-        <v>163.630264649244</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I9">
-        <v>0.3790372537337974</v>
+        <v>0.376379213879422</v>
       </c>
       <c r="J9">
-        <v>0.3790372537337974</v>
+        <v>0.4014659877938717</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>17.918771390257</v>
+        <v>0.132278</v>
       </c>
       <c r="N9">
-        <v>17.918771390257</v>
+        <v>0.396834</v>
       </c>
       <c r="O9">
-        <v>0.2356939554538648</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P9">
-        <v>0.2356939554538648</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q9">
-        <v>2932.053304777055</v>
+        <v>23.59018289674067</v>
       </c>
       <c r="R9">
-        <v>2932.053304777055</v>
+        <v>212.311646070666</v>
       </c>
       <c r="S9">
-        <v>0.08933678959688891</v>
+        <v>0.0006062155416409432</v>
       </c>
       <c r="T9">
-        <v>0.08933678959688891</v>
+        <v>0.0007008642825432309</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>85.4032467053773</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H10">
-        <v>85.4032467053773</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I10">
-        <v>0.1978302251148119</v>
+        <v>0.376379213879422</v>
       </c>
       <c r="J10">
-        <v>0.1978302251148119</v>
+        <v>0.4014659877938717</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.897941217831048</v>
+        <v>0.655122</v>
       </c>
       <c r="N10">
-        <v>0.897941217831048</v>
+        <v>1.965366</v>
       </c>
       <c r="O10">
-        <v>0.01181103953983894</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P10">
-        <v>0.01181103953983894</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q10">
-        <v>76.68709535335192</v>
+        <v>116.833092424126</v>
       </c>
       <c r="R10">
-        <v>76.68709535335192</v>
+        <v>1051.497831817134</v>
       </c>
       <c r="S10">
-        <v>0.002336580611006282</v>
+        <v>0.003002352152821315</v>
       </c>
       <c r="T10">
-        <v>0.002336580611006282</v>
+        <v>0.003471110921757863</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>85.4032467053773</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H11">
-        <v>85.4032467053773</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I11">
-        <v>0.1978302251148119</v>
+        <v>0.376379213879422</v>
       </c>
       <c r="J11">
-        <v>0.1978302251148119</v>
+        <v>0.4014659877938717</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>56.7871225945224</v>
+        <v>19.068426</v>
       </c>
       <c r="N11">
-        <v>56.7871225945224</v>
+        <v>38.136852</v>
       </c>
       <c r="O11">
-        <v>0.7469475027972082</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P11">
-        <v>0.7469475027972082</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q11">
-        <v>4849.804640628502</v>
+        <v>3400.623360596358</v>
       </c>
       <c r="R11">
-        <v>4849.804640628502</v>
+        <v>20403.74016357815</v>
       </c>
       <c r="S11">
-        <v>0.1477687926273183</v>
+        <v>0.08738850145776503</v>
       </c>
       <c r="T11">
-        <v>0.1477687926273183</v>
+        <v>0.06735500843031943</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>85.4032467053773</v>
+        <v>86.61737833333332</v>
       </c>
       <c r="H12">
-        <v>85.4032467053773</v>
+        <v>259.852135</v>
       </c>
       <c r="I12">
-        <v>0.1978302251148119</v>
+        <v>0.1828045400309692</v>
       </c>
       <c r="J12">
-        <v>0.1978302251148119</v>
+        <v>0.1949889965502951</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.421752113583795</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N12">
-        <v>0.421752113583795</v>
+        <v>3.633172</v>
       </c>
       <c r="O12">
-        <v>0.005547502209087931</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P12">
-        <v>0.005547502209087931</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q12">
-        <v>36.01899980491115</v>
+        <v>104.8986112246911</v>
       </c>
       <c r="R12">
-        <v>36.01899980491115</v>
+        <v>944.08750102222</v>
       </c>
       <c r="S12">
-        <v>0.001097463610848782</v>
+        <v>0.002695662373594606</v>
       </c>
       <c r="T12">
-        <v>0.001097463610848782</v>
+        <v>0.003116537511285352</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>85.4032467053773</v>
+        <v>86.61737833333332</v>
       </c>
       <c r="H13">
-        <v>85.4032467053773</v>
+        <v>259.852135</v>
       </c>
       <c r="I13">
-        <v>0.1978302251148119</v>
+        <v>0.1828045400309692</v>
       </c>
       <c r="J13">
-        <v>0.1978302251148119</v>
+        <v>0.1949889965502951</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.918771390257</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N13">
-        <v>17.918771390257</v>
+        <v>183.180478</v>
       </c>
       <c r="O13">
-        <v>0.2356939554538648</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P13">
-        <v>0.2356939554538648</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q13">
-        <v>1530.321253699375</v>
+        <v>5288.870922068947</v>
       </c>
       <c r="R13">
-        <v>1530.321253699375</v>
+        <v>47599.83829862053</v>
       </c>
       <c r="S13">
-        <v>0.04662738826563854</v>
+        <v>0.1359122887993397</v>
       </c>
       <c r="T13">
-        <v>0.04662738826563854</v>
+        <v>0.1571323435890679</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>100.955319483884</v>
+        <v>86.61737833333332</v>
       </c>
       <c r="H14">
-        <v>100.955319483884</v>
+        <v>259.852135</v>
       </c>
       <c r="I14">
-        <v>0.2338554370062025</v>
+        <v>0.1828045400309692</v>
       </c>
       <c r="J14">
-        <v>0.2338554370062025</v>
+        <v>0.1949889965502951</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.897941217831048</v>
+        <v>0.132278</v>
       </c>
       <c r="N14">
-        <v>0.897941217831048</v>
+        <v>0.396834</v>
       </c>
       <c r="O14">
-        <v>0.01181103953983894</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P14">
-        <v>0.01181103953983894</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q14">
-        <v>90.65194252388132</v>
+        <v>11.45757357117667</v>
       </c>
       <c r="R14">
-        <v>90.65194252388132</v>
+        <v>103.11816214059</v>
       </c>
       <c r="S14">
-        <v>0.002762075813086572</v>
+        <v>0.0002944343076416536</v>
       </c>
       <c r="T14">
-        <v>0.002762075813086572</v>
+        <v>0.0003404044858744401</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>100.955319483884</v>
+        <v>86.61737833333332</v>
       </c>
       <c r="H15">
-        <v>100.955319483884</v>
+        <v>259.852135</v>
       </c>
       <c r="I15">
-        <v>0.2338554370062025</v>
+        <v>0.1828045400309692</v>
       </c>
       <c r="J15">
-        <v>0.2338554370062025</v>
+        <v>0.1949889965502951</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>56.7871225945224</v>
+        <v>0.655122</v>
       </c>
       <c r="N15">
-        <v>56.7871225945224</v>
+        <v>1.965366</v>
       </c>
       <c r="O15">
-        <v>0.7469475027972082</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P15">
-        <v>0.7469475027972082</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q15">
-        <v>5732.962104100497</v>
+        <v>56.74495012848999</v>
       </c>
       <c r="R15">
-        <v>5732.962104100497</v>
+        <v>510.7045511564099</v>
       </c>
       <c r="S15">
-        <v>0.1746777346873328</v>
+        <v>0.001458219753026319</v>
       </c>
       <c r="T15">
-        <v>0.1746777346873328</v>
+        <v>0.001685892344872428</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>100.955319483884</v>
+        <v>86.61737833333332</v>
       </c>
       <c r="H16">
-        <v>100.955319483884</v>
+        <v>259.852135</v>
       </c>
       <c r="I16">
-        <v>0.2338554370062025</v>
+        <v>0.1828045400309692</v>
       </c>
       <c r="J16">
-        <v>0.2338554370062025</v>
+        <v>0.1949889965502951</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.421752113583795</v>
+        <v>19.068426</v>
       </c>
       <c r="N16">
-        <v>0.421752113583795</v>
+        <v>38.136852</v>
       </c>
       <c r="O16">
-        <v>0.005547502209087931</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P16">
-        <v>0.005547502209087931</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q16">
-        <v>42.57811936985536</v>
+        <v>1651.65706906317</v>
       </c>
       <c r="R16">
-        <v>42.57811936985536</v>
+        <v>9909.942414379018</v>
       </c>
       <c r="S16">
-        <v>0.001297313553399132</v>
+        <v>0.04244393479736695</v>
       </c>
       <c r="T16">
-        <v>0.001297313553399132</v>
+        <v>0.03271381861919496</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>100.955319483884</v>
+        <v>102.6404036666667</v>
       </c>
       <c r="H17">
-        <v>100.955319483884</v>
+        <v>307.921211</v>
       </c>
       <c r="I17">
-        <v>0.2338554370062025</v>
+        <v>0.2166208691825219</v>
       </c>
       <c r="J17">
-        <v>0.2338554370062025</v>
+        <v>0.231059282808824</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.918771390257</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N17">
-        <v>17.918771390257</v>
+        <v>3.633172</v>
       </c>
       <c r="O17">
-        <v>0.2356939554538648</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P17">
-        <v>0.2356939554538648</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q17">
-        <v>1808.995290462076</v>
+        <v>124.3034135568102</v>
       </c>
       <c r="R17">
-        <v>1808.995290462076</v>
+        <v>1118.730722011292</v>
       </c>
       <c r="S17">
-        <v>0.05511831295238399</v>
+        <v>0.003194322888762818</v>
       </c>
       <c r="T17">
-        <v>0.05511831295238399</v>
+        <v>0.003693054146358705</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>71.3743095726448</v>
+        <v>102.6404036666667</v>
       </c>
       <c r="H18">
-        <v>71.3743095726448</v>
+        <v>307.921211</v>
       </c>
       <c r="I18">
-        <v>0.1653332428787108</v>
+        <v>0.2166208691825219</v>
       </c>
       <c r="J18">
-        <v>0.1653332428787108</v>
+        <v>0.231059282808824</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.897941217831048</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N18">
-        <v>0.897941217831048</v>
+        <v>183.180478</v>
       </c>
       <c r="O18">
-        <v>0.01181103953983894</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P18">
-        <v>0.01181103953983894</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q18">
-        <v>64.0899344595109</v>
+        <v>6267.239401924317</v>
       </c>
       <c r="R18">
-        <v>64.0899344595109</v>
+        <v>56405.15461731885</v>
       </c>
       <c r="S18">
-        <v>0.001952757468890247</v>
+        <v>0.1610541955211352</v>
       </c>
       <c r="T18">
-        <v>0.001952757468890247</v>
+        <v>0.1861996689971929</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>71.3743095726448</v>
+        <v>102.6404036666667</v>
       </c>
       <c r="H19">
-        <v>71.3743095726448</v>
+        <v>307.921211</v>
       </c>
       <c r="I19">
-        <v>0.1653332428787108</v>
+        <v>0.2166208691825219</v>
       </c>
       <c r="J19">
-        <v>0.1653332428787108</v>
+        <v>0.231059282808824</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>56.7871225945224</v>
+        <v>0.132278</v>
       </c>
       <c r="N19">
-        <v>56.7871225945224</v>
+        <v>0.396834</v>
       </c>
       <c r="O19">
-        <v>0.7469475027972082</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P19">
-        <v>0.7469475027972082</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q19">
-        <v>4053.141667801174</v>
+        <v>13.57706731621933</v>
       </c>
       <c r="R19">
-        <v>4053.141667801174</v>
+        <v>122.193605845974</v>
       </c>
       <c r="S19">
-        <v>0.1234952528976173</v>
+        <v>0.0003489006106067381</v>
       </c>
       <c r="T19">
-        <v>0.1234952528976173</v>
+        <v>0.0004033746404288347</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>71.3743095726448</v>
+        <v>102.6404036666667</v>
       </c>
       <c r="H20">
-        <v>71.3743095726448</v>
+        <v>307.921211</v>
       </c>
       <c r="I20">
-        <v>0.1653332428787108</v>
+        <v>0.2166208691825219</v>
       </c>
       <c r="J20">
-        <v>0.1653332428787108</v>
+        <v>0.231059282808824</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.421752113583795</v>
+        <v>0.655122</v>
       </c>
       <c r="N20">
-        <v>0.421752113583795</v>
+        <v>1.965366</v>
       </c>
       <c r="O20">
-        <v>0.005547502209087931</v>
+        <v>0.007976934012575832</v>
       </c>
       <c r="P20">
-        <v>0.005547502209087931</v>
+        <v>0.008646089649666828</v>
       </c>
       <c r="Q20">
-        <v>30.10226591784704</v>
+        <v>67.24198653091399</v>
       </c>
       <c r="R20">
-        <v>30.10226591784704</v>
+        <v>605.1778787782259</v>
       </c>
       <c r="S20">
-        <v>0.0009171865301053194</v>
+        <v>0.001727970379215799</v>
       </c>
       <c r="T20">
-        <v>0.0009171865301053194</v>
+        <v>0.001997759273552813</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>71.3743095726448</v>
+        <v>102.6404036666667</v>
       </c>
       <c r="H21">
-        <v>71.3743095726448</v>
+        <v>307.921211</v>
       </c>
       <c r="I21">
-        <v>0.1653332428787108</v>
+        <v>0.2166208691825219</v>
       </c>
       <c r="J21">
-        <v>0.1653332428787108</v>
+        <v>0.231059282808824</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.918771390257</v>
+        <v>19.068426</v>
       </c>
       <c r="N21">
-        <v>17.918771390257</v>
+        <v>38.136852</v>
       </c>
       <c r="O21">
-        <v>0.2356939554538648</v>
+        <v>0.232182060632501</v>
       </c>
       <c r="P21">
-        <v>0.2356939554538648</v>
+        <v>0.1677726394717705</v>
       </c>
       <c r="Q21">
-        <v>1278.939936369654</v>
+        <v>1957.190941927962</v>
       </c>
       <c r="R21">
-        <v>1278.939936369654</v>
+        <v>11743.14565156777</v>
       </c>
       <c r="S21">
-        <v>0.03896804598209787</v>
+        <v>0.05029547978280138</v>
       </c>
       <c r="T21">
-        <v>0.03896804598209787</v>
+        <v>0.03876542575129067</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>88.82503149999999</v>
+      </c>
+      <c r="H22">
+        <v>177.650063</v>
+      </c>
+      <c r="I22">
+        <v>0.1874637554152924</v>
+      </c>
+      <c r="J22">
+        <v>0.1333058414989229</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.211057333333333</v>
+      </c>
+      <c r="N22">
+        <v>3.633172</v>
+      </c>
+      <c r="O22">
+        <v>0.0147461456544675</v>
+      </c>
+      <c r="P22">
+        <v>0.01598314554371009</v>
+      </c>
+      <c r="Q22">
+        <v>107.5722057816393</v>
+      </c>
+      <c r="R22">
+        <v>645.433234689836</v>
+      </c>
+      <c r="S22">
+        <v>0.002764367842287372</v>
+      </c>
+      <c r="T22">
+        <v>0.002130646666504033</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>88.82503149999999</v>
+      </c>
+      <c r="H23">
+        <v>177.650063</v>
+      </c>
+      <c r="I23">
+        <v>0.1874637554152924</v>
+      </c>
+      <c r="J23">
+        <v>0.1333058414989229</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>61.06015933333333</v>
+      </c>
+      <c r="N23">
+        <v>183.180478</v>
+      </c>
+      <c r="O23">
+        <v>0.7434842087418319</v>
+      </c>
+      <c r="P23">
+        <v>0.8058523627949308</v>
+      </c>
+      <c r="Q23">
+        <v>5423.670576178351</v>
+      </c>
+      <c r="R23">
+        <v>32542.02345707011</v>
+      </c>
+      <c r="S23">
+        <v>0.139376341862711</v>
+      </c>
+      <c r="T23">
+        <v>0.1074248273462735</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>88.82503149999999</v>
+      </c>
+      <c r="H24">
+        <v>177.650063</v>
+      </c>
+      <c r="I24">
+        <v>0.1874637554152924</v>
+      </c>
+      <c r="J24">
+        <v>0.1333058414989229</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.132278</v>
+      </c>
+      <c r="N24">
+        <v>0.396834</v>
+      </c>
+      <c r="O24">
+        <v>0.001610650958623747</v>
+      </c>
+      <c r="P24">
+        <v>0.001745762539921768</v>
+      </c>
+      <c r="Q24">
+        <v>11.749597516757</v>
+      </c>
+      <c r="R24">
+        <v>70.497585100542</v>
+      </c>
+      <c r="S24">
+        <v>0.0003019386773668483</v>
+      </c>
+      <c r="T24">
+        <v>0.0002327203444415683</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>88.82503149999999</v>
+      </c>
+      <c r="H25">
+        <v>177.650063</v>
+      </c>
+      <c r="I25">
+        <v>0.1874637554152924</v>
+      </c>
+      <c r="J25">
+        <v>0.1333058414989229</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.655122</v>
+      </c>
+      <c r="N25">
+        <v>1.965366</v>
+      </c>
+      <c r="O25">
+        <v>0.007976934012575832</v>
+      </c>
+      <c r="P25">
+        <v>0.008646089649666828</v>
+      </c>
+      <c r="Q25">
+        <v>58.19123228634299</v>
+      </c>
+      <c r="R25">
+        <v>349.147393718058</v>
+      </c>
+      <c r="S25">
+        <v>0.001495386006697443</v>
+      </c>
+      <c r="T25">
+        <v>0.001152574256423964</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>88.82503149999999</v>
+      </c>
+      <c r="H26">
+        <v>177.650063</v>
+      </c>
+      <c r="I26">
+        <v>0.1874637554152924</v>
+      </c>
+      <c r="J26">
+        <v>0.1333058414989229</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>19.068426</v>
+      </c>
+      <c r="N26">
+        <v>38.136852</v>
+      </c>
+      <c r="O26">
+        <v>0.232182060632501</v>
+      </c>
+      <c r="P26">
+        <v>0.1677726394717705</v>
+      </c>
+      <c r="Q26">
+        <v>1693.753540105419</v>
+      </c>
+      <c r="R26">
+        <v>6775.014160421675</v>
+      </c>
+      <c r="S26">
+        <v>0.04352572102622977</v>
+      </c>
+      <c r="T26">
+        <v>0.02236507288527977</v>
       </c>
     </row>
   </sheetData>
